--- a/5.UIPATH/Project_Library_subscribe_email_send/data/Config.xlsx
+++ b/5.UIPATH/Project_Library_subscribe_email_send/data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\Library\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkh08\OneDrive\문서\uipath\alphaco5_teamproject2\alpaco5_Project_library\5.UIPATH\Project_Library_subscribe_email_send\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0673D462-DB0C-4402-BE38-CE69B1594E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE07B0A-70DE-4942-9B0D-91F8FA7FBEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,12 +267,84 @@
     <t>보내는 사람 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>pythonenv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\mkh08\AppData\Local\Programs\Python\Python311</t>
+  </si>
+  <si>
+    <t>파이썬 구동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pythonwork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파이썬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작업폴더 주소</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C:\Users\mkh08\OneDrive\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>\UiPath\alphaco5_teamproject2\alpaco5_Project_library\6.Subscribe_extract\</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +428,20 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -389,7 +475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -422,6 +508,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -744,11 +833,11 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="20.69921875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="20.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.69921875" style="1"/>
+    <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -793,20 +882,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D129B3-C630-4D4F-94AA-81D79A80C13C}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="40.69921875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
+    <col min="2" max="3" width="40.75" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4" customHeight="1">
+    <row r="1" spans="1:3" ht="14.45" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -839,7 +928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.399999999999999">
+    <row r="4" spans="1:3" ht="16.5">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -850,7 +939,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.399999999999999">
+    <row r="5" spans="1:3" ht="16.5">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -859,6 +948,28 @@
       </c>
       <c r="C5" s="6" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -879,12 +990,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.69921875" style="1"/>
+    <col min="3" max="3" width="32.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -960,16 +1071,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA834E7-DDAB-489E-9801-6DDD8D246B8E}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.69921875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.75" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -983,7 +1094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.4" customHeight="1">
+    <row r="2" spans="1:3" ht="14.45" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -994,7 +1105,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.399999999999999">
+    <row r="3" spans="1:3" ht="16.5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,7 +1116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.399999999999999">
+    <row r="4" spans="1:3" ht="16.5">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1016,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="129.6">
+    <row r="5" spans="1:3" ht="135">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1027,7 +1138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.6">
+    <row r="13" spans="1:3" ht="15.75">
       <c r="B13" s="4"/>
     </row>
   </sheetData>
